--- a/data/long_dif/P22-Urba-long_dif.xlsx
+++ b/data/long_dif/P22-Urba-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +627,52 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>28,29%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24,53%</t>
+          <t>25,28%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>26,96%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30,12%</t>
+          <t>28,66%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,73%</t>
+          <t>30,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>27,47%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>28,49%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>28,17%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>27,23%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,63; 32,55</t>
+          <t>23,34; 34,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,57; 28,67</t>
+          <t>21,14; 29,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,36; 32,32</t>
+          <t>20,9; 32,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,58; 34,06</t>
+          <t>24,92; 33,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,58; 30,9</t>
+          <t>27,14; 34,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,59; 30,26</t>
+          <t>22,78; 31,89</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>25,28; 32,2</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25,49; 31,04</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>23,58; 30,94</t>
         </is>
       </c>
     </row>
@@ -672,37 +733,52 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>40,88%</t>
+          <t>40,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>51,52%</t>
+          <t>50,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>39,11%</t>
+          <t>41,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,44%</t>
+          <t>38,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,94%</t>
+          <t>40,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>46,24%</t>
+          <t>39,86%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>39,45%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>45,53%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>40,62%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,63; 45,93</t>
+          <t>35,31; 45,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>46,86; 57,66</t>
+          <t>46,01; 56,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,05; 44,28</t>
+          <t>33,69; 47,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37,72; 46,49</t>
+          <t>34,5; 43,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,29; 43,31</t>
+          <t>37,09; 44,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,75; 49,67</t>
+          <t>35,18; 44,86</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>35,87; 42,54</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>42,48; 48,86</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>36,48; 44,92</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>31,39%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>23,84%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>31,58%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>32,66%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>28,53%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>32,66%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>32,06%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>23,95%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>32,56%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>28,45%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>32,33%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>26,31%</t>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26,3%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>32,15%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,73; 37,11</t>
+          <t>27,17; 36,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,9; 28,26</t>
+          <t>19,8; 27,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,33; 36,87</t>
+          <t>25,41; 43,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,89; 32,18</t>
+          <t>28,81; 37,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,34; 35,64</t>
+          <t>25,16; 32,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,64; 29,12</t>
+          <t>28,23; 37,79</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>29,23; 35,44</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>23,69; 29,21</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>28,13; 37,83</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,61; 38,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,71; 34,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,14; 34,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,19; 33,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,46; 33,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,83; 32,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>40,22%</t>
+          <t>27,86%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>44,61%</t>
+          <t>28,6%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>38,08%</t>
+          <t>27,44%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>40,19%</t>
+          <t>29,4%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>39,15%</t>
+          <t>29,84%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>42,41%</t>
+          <t>31,1%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>28,62%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29,22%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>29,26%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>33,74; 46,68</t>
+          <t>22,7; 35,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>39,45; 49,85</t>
+          <t>24,15; 33,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32,96; 43,61</t>
+          <t>22,08; 33,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>35,35; 44,59</t>
+          <t>24,36; 34,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>34,92; 43,26</t>
+          <t>25,67; 34,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,83; 46,15</t>
+          <t>26,03; 36,73</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>24,88; 32,83</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>26,11; 32,76</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>25,41; 33,43</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>30,28%</t>
+          <t>41,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>44,37%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>32,72%</t>
+          <t>42,51%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>37,76%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>31,5%</t>
+          <t>39,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>36,64%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>39,62%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>42,0%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>39,6%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1219,100 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,84; 36,71</t>
+          <t>35,72; 47,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,21; 32,2</t>
+          <t>38,86; 49,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27,53; 38,41</t>
+          <t>36,2; 50,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>26,47; 35,31</t>
+          <t>32,73; 43,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,63; 35,48</t>
+          <t>34,97; 44,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,52; 32,24</t>
+          <t>31,16; 42,46</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>35,87; 44,13</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>38,72; 46,15</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>35,35; 44,3</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>30,67%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>33,96%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>28,21%</t>
+          <t>30,04%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>36,88%</t>
+          <t>32,84%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>30,55%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>32,26%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>31,75%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>28,78%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>31,14%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,1; 32,15</t>
+          <t>24,96; 36,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>25,21; 43,44</t>
+          <t>22,49; 32,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,6; 37,69</t>
+          <t>24,26; 36,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>28,29; 45,72</t>
+          <t>27,91; 38,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,39; 30,99</t>
+          <t>25,87; 35,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>28,59; 41,81</t>
+          <t>27,12; 37,15</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>28,0; 36,06</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>25,39; 32,0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>27,5; 35,23</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>39,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>40,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>29,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>34,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>39,23%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>28,39; 51,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>31,0; 51,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,06; 39,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>29,4; 47,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>27,58; 42,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>32,51; 45,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>39,37%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>25,55%</t>
+          <t>32,44%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>41,85%</t>
+          <t>25,09%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>25,22%</t>
+          <t>29,18%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>40,58%</t>
+          <t>36,87%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>19,93%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>24,86%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>34,58%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>22,58%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>27,16; 51,86</t>
+          <t>13,21; 31,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,06; 34,89</t>
+          <t>23,76; 41,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>32,05; 52,65</t>
+          <t>14,01; 39,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,75; 33,65</t>
+          <t>20,59; 37,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>33,71; 50,18</t>
+          <t>28,87; 47,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>20,35; 31,96</t>
+          <t>12,37; 29,08</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>18,45; 31,92</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>28,46; 41,57</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>15,31; 31,25</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>39,59%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>27,36%</t>
+          <t>41,24%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>47,92%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>29,3%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>28,0%</t>
+          <t>38,41%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>46,49%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>34,6%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>39,87%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>47,22%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>23,98; 31,65</t>
+          <t>27,63; 51,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>24,38; 30,81</t>
+          <t>32,02; 52,52</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>25,73; 31,82</t>
+          <t>32,12; 68,08</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>27,75; 33,3</t>
+          <t>21,37; 39,43</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>25,95; 30,89</t>
+          <t>29,89; 46,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>26,91; 30,94</t>
+          <t>35,78; 57,61</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>27,19; 42,42</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>32,75; 47,05</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>37,95; 59,55</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>40,43%</t>
+          <t>39,61%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>47,4%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>37,68%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>40,57%</t>
+          <t>41,52%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>39,02%</t>
+          <t>24,72%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>43,92%</t>
+          <t>33,58%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>40,54%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>25,55%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>30,19%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>36,28; 44,15</t>
+          <t>27,55; 54,72</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>43,6; 51,04</t>
+          <t>18,6; 36,29</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>34,44; 41,01</t>
+          <t>15,14; 40,01</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>37,52; 43,78</t>
+          <t>32,41; 52,13</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>36,4; 41,76</t>
+          <t>17,05; 32,89</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>41,52; 46,25</t>
+          <t>24,23; 45,56</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>32,63; 50,59</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>20,0; 32,35</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>21,88; 39,15</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>32,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>32,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +1859,495 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>28,73; 36,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>22,32; 28,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>30,49; 37,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>26,37; 31,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>30,33; 35,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>25,16; 29,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>27,18%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>27,49%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>26,92%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>29,0%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>31,11%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>28,0%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>28,11%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>29,33%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>27,47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>23,76; 31,36</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>24,65; 30,57</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>22,89; 30,55</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>26,15; 32,21</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>28,27; 33,73</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>25,01; 31,69</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>25,75; 30,9</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>27,34; 31,67</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>25,11; 29,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>40,7%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>47,09%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>42,68%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>37,27%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>40,01%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>39,39%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>38,94%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>43,49%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>41,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>36,69; 44,48</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>43,82; 51,05</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>38,12; 47,31</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>34,3; 40,59</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>37,39; 43,14</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>35,84; 43,07</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>36,47; 41,63</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>41,08; 45,91</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>37,97; 43,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>32,12%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>25,42%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>30,4%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>33,72%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>28,88%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>32,62%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>32,94%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>27,18%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>31,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>28,69; 36,11</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>22,49; 28,47</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>26,16; 37,31</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>30,61; 37,17</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>26,22; 31,48</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>29,27; 36,29</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>30,54; 35,31</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>25,15; 29,03</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>28,83; 34,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
